--- a/lesson 13(excel)/formuls.xlsx
+++ b/lesson 13(excel)/formuls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgribanov/PycharmProjects/data_engineer_training/lesson 13(excel)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43DC113F-DD62-684D-93D6-071ACB647150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4D8442-1985-1346-91AE-5CEECC91E892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2300" windowWidth="28240" windowHeight="17240" xr2:uid="{752CADE3-D362-F74C-B996-5A6DABFF68D7}"/>
   </bookViews>
@@ -24,9 +24,119 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+  <si>
+    <t>если с одним уровнем</t>
+  </si>
+  <si>
+    <t>множественное если</t>
+  </si>
+  <si>
+    <t>2020 01 01</t>
+  </si>
+  <si>
+    <t>обычное сравнение</t>
+  </si>
+  <si>
+    <t>форматирование дату excel</t>
+  </si>
+  <si>
+    <t>обычное сравние</t>
+  </si>
+  <si>
+    <t>2020 01 02</t>
+  </si>
+  <si>
+    <t>2020 01 04</t>
+  </si>
+  <si>
+    <t>комментарий 1</t>
+  </si>
+  <si>
+    <t>комментарий 2</t>
+  </si>
+  <si>
+    <t>комментарий 3</t>
+  </si>
+  <si>
+    <t>сцепить без форматирования</t>
+  </si>
+  <si>
+    <t>сцепить с заголовками</t>
+  </si>
+  <si>
+    <t>сцепить c текстом и кавычками</t>
+  </si>
+  <si>
+    <t>ошибка</t>
+  </si>
+  <si>
+    <t>без ошибок</t>
+  </si>
+  <si>
+    <t>collumn_1</t>
+  </si>
+  <si>
+    <t>collumn_2</t>
+  </si>
+  <si>
+    <t>collumn_3</t>
+  </si>
+  <si>
+    <t>text insert</t>
+  </si>
+  <si>
+    <t>text value</t>
+  </si>
+  <si>
+    <t>end value</t>
+  </si>
+  <si>
+    <t>');</t>
+  </si>
+  <si>
+    <t>`) value ('</t>
+  </si>
+  <si>
+    <t>create table `data_set`.`excel_olya` (
+`collumn_1` date,
+`collumn_2` varchar(25),
+`collumn_3` date)</t>
+  </si>
+  <si>
+    <t>insert into `data_set`.`excel_olya` (`</t>
+  </si>
+  <si>
+    <t>генератор чисел</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>генератор списка</t>
+  </si>
+  <si>
+    <t>netral</t>
+  </si>
+  <si>
+    <t>список</t>
+  </si>
+  <si>
+    <t>http://www.generatedata.com/</t>
+  </si>
+  <si>
+    <t>сайт для генерации данных</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -35,16 +145,80 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -52,14 +226,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,14 +651,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B9EB53-8892-6846-822D-899F138FE035}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="111.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>IF(A2=B2,"A1 равно B2","A1 не равно B2")</f>
+        <v>A1 равно B2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>IF(E2=F2,"Истина",IF(E2=G2,"E2 равно G2","E2 не равно F2 и E2 не равно G2"))</f>
+        <v>E2 равно G2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>IF(A3=B3,"A1 равно B2","A1 не равно B2")</f>
+        <v>A1 не равно B2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f>IF(E3=F3,"Истина",IF(E3=G3,"Истина E2 и G2","E2 не равно F2 и E2 не равно G2"))</f>
+        <v>E2 не равно F2 и E2 не равно G2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="str">
+        <f ca="1">INDEX(B11:B13,RANDBETWEEN(1,3))</f>
+        <v>bad</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="b">
+        <f>A19=B19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <f>DATEVALUE(SUBSTITUTE(B19," ","."))</f>
+        <v>43831</v>
+      </c>
+      <c r="E19" s="9" t="b">
+        <f>A19=D19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>43832</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7" t="b">
+        <f>A20=B20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" ref="D20:D21" si="0">DATEVALUE(SUBSTITUTE(B20," ","."))</f>
+        <v>43832</v>
+      </c>
+      <c r="E20" s="9" t="b">
+        <f>A20=D20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>43833</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7" t="b">
+        <f>A21=B21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>43834</v>
+      </c>
+      <c r="E21" s="9" t="b">
+        <f>A21=D21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7" t="str">
+        <f>_xlfn.CONCAT(A24," ",B24)</f>
+        <v>43831 комментарий 1</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f>_xlfn.CONCAT(TEXT(A24,"ДД/ММ/ГГГГ")," '",B24,"'")</f>
+        <v>01/01/2020 'комментарий 1'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>43832</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="str">
+        <f>_xlfn.CONCAT(A25," ",B25)</f>
+        <v>43832 комментарий 2</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <f>_xlfn.CONCAT(TEXT(A25,"ДД/ММ/ГГГГ")," '",B25,"'")</f>
+        <v>02/01/2020 'комментарий 2'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>43833</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f>_xlfn.CONCAT(A26," ",B26)</f>
+        <v>43833 комментарий 3</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f>_xlfn.CONCAT(TEXT(A26,"ДД/ММ/ГГГГ")," '",B26,"'")</f>
+        <v>03/01/2020 'комментарий 3'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="10">
+        <v>43831</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9" t="str">
+        <f>_xlfn.CONCAT(A31,$D$30,"`,`",$E$30,"`,`",$F$30,B31,TEXT(D31,"ГГГГ-ММ-ДД"),"','",E31,"','",TEXT(DATEVALUE(SUBSTITUTE(F31," ",".")),"ГГГГ-ММ-ДД"),C31)</f>
+        <v>insert into `data_set`.`excel_olya` (`collumn_1`,`collumn_2`,`collumn_3`) value ('2020-01-01','комментарий 1','2020-01-01');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="10">
+        <v>43832</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="9" t="str">
+        <f t="shared" ref="G32:G33" si="1">_xlfn.CONCAT(A32,$D$30,"`,`",$E$30,"`,`",$F$30,B32,TEXT(D32,"ГГГГ-ММ-ДД"),"','",E32,"','",TEXT(DATEVALUE(SUBSTITUTE(F32," ",".")),"ГГГГ-ММ-ДД"),C32)</f>
+        <v>insert into `data_set`.`excel_olya` (`collumn_1`,`collumn_2`,`collumn_3`) value ('2020-01-02','комментарий 2','2020-01-02');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="10">
+        <v>43833</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `data_set`.`excel_olya` (`collumn_1`,`collumn_2`,`collumn_3`) value ('2020-01-03','комментарий 3','2020-01-04');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A37" r:id="rId1" xr:uid="{471B4D71-524D-EB47-89C2-3249EB6FFF8D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>